--- a/testdata/invalid-testdata/excel2json/new_lists_duplicate_ids/list_duplicate_1.xlsx
+++ b/testdata/invalid-testdata/excel2json/new_lists_duplicate_ids/list_duplicate_1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noraammann/Documents/Cloned_GitHub/dsp-tools/testdata/invalid-testdata/excel2json/new_lists_duplicate_ids/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68E9BE33-5945-DC49-B45B-CE2A6DC07A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40111195-7DEB-8542-8F81-6858037013E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="760" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{A320CADF-BCB7-D643-91E4-BA6B29A80A1C}"/>
   </bookViews>
@@ -74,7 +74,7 @@
     <t>List 2</t>
   </si>
   <si>
-    <t>duplicateID</t>
+    <t>duplicate_list_id</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
